--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2082008.673542732</v>
+        <v>2251543.617881195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631046</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809162</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6329606.806007543</v>
+        <v>6388624.392618209</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>246.8667484751668</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>28.11631013281968</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>28.11631013281968</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.76484596498756</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>24.76484596498756</v>
+        <v>229.7790204235679</v>
       </c>
       <c r="X4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>292.9082206543438</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>14.94721823158767</v>
       </c>
       <c r="W5" t="n">
-        <v>176.8261751843378</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>292.9082206543438</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.9082206543438</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -1038,7 +1038,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>28.18354108856286</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
         <v>138.2959597602405</v>
@@ -1060,10 +1060,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>211.7848134586991</v>
+        <v>28.16874740712025</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>177.2371487216782</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1142,13 +1142,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>283.6436026579389</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.0571450752901</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1309,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1357,7 +1357,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>169.5579690663461</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>31.69987330627792</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162748</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.8550050462797</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>85.20539141529356</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316327</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573507</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>350.1519392541161</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162748</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>47.90749350465946</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316327</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>190.749278245723</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.75838998608622</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>116.2748171257529</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1368198100101</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316327</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573507</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162748</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>49.00792363084712</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>98.15366458399298</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316327</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573507</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>179.4966503176936</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162748</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>69.70658994605346</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1368198100099</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316327</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573507</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>98.26334559068141</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2950,10 +2950,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>12.12359802612633</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,7 +3013,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.3850932342101</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138063</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295138</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>178.1668213893228</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.155349854251</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160352</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105456</v>
+        <v>160.045668847563</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360706</v>
+        <v>108.1577655104155</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448717</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705897</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334169</v>
+        <v>158.3362093704343</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607369</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790766</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454118</v>
+        <v>268.7968650824292</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.00639215359</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530308</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545158</v>
+        <v>213.9818529915332</v>
       </c>
     </row>
     <row r="35">
@@ -3673,7 +3673,7 @@
         <v>134.4685551105456</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9197986360702</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H40" t="n">
         <v>106.6837044342875</v>
@@ -3946,7 +3946,7 @@
         <v>10.89362580705897</v>
       </c>
       <c r="S43" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334167</v>
       </c>
       <c r="T43" t="n">
         <v>205.2313529237194</v>
@@ -3986,7 +3986,7 @@
         <v>386.0425690809814</v>
       </c>
       <c r="F44" t="n">
-        <v>385.1983386198544</v>
+        <v>385.1983386198541</v>
       </c>
       <c r="G44" t="n">
         <v>364.6210704138063</v>
@@ -4138,7 +4138,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D46" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718567</v>
       </c>
       <c r="E46" t="n">
         <v>128.8715224160354</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>758.1486408160106</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>331.2479108293107</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>311.995694054715</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>62.63534205959706</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>41.55156428940136</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>403.8563647361495</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>585.5503949569818</v>
       </c>
       <c r="L2" t="n">
-        <v>2.249304810625575</v>
+        <v>585.5503949569818</v>
       </c>
       <c r="M2" t="n">
-        <v>28.95979943680427</v>
+        <v>1096.055105707751</v>
       </c>
       <c r="N2" t="n">
-        <v>56.79494646829576</v>
+        <v>1096.055105707751</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63009349978725</v>
+        <v>1606.55981645852</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1606.55981645852</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1841.719725007336</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1583.364815603748</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1583.364815603748</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1186.973465904095</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1179.293871112246</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>773.9566010671366</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.04993134157444</v>
+        <v>608.3763969507092</v>
       </c>
       <c r="C3" t="n">
-        <v>59.04993134157444</v>
+        <v>490.870493468214</v>
       </c>
       <c r="D3" t="n">
-        <v>59.04993134157444</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6496180761</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.62899915694447</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="K3" t="n">
-        <v>37.5310948040289</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="L3" t="n">
-        <v>65.36624183552038</v>
+        <v>318.426404247457</v>
       </c>
       <c r="M3" t="n">
-        <v>93.20138886701187</v>
+        <v>828.9311149982259</v>
       </c>
       <c r="N3" t="n">
-        <v>112.4652405312787</v>
+        <v>1339.435825748995</v>
       </c>
       <c r="O3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061018</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>1236.995018417599</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>876.9962950174796</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.04993134157444</v>
+        <v>737.303406370772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>1124.434028443491</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>952.4614653224069</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>789.1446924491776</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>622.9364866020311</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>451.0747123765915</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>284.8177426708237</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.0214741789781</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>166.251197979569</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>520.9405192739898</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>912.1263142442406</v>
       </c>
       <c r="N4" t="n">
-        <v>57.91959887360855</v>
+        <v>1289.617825120276</v>
       </c>
       <c r="O4" t="n">
-        <v>85.75474590510004</v>
+        <v>1645.04595380004</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.645165721941</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="S4" t="n">
-        <v>84.0649272658043</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="U4" t="n">
-        <v>55.66461400032987</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="V4" t="n">
-        <v>55.66461400032987</v>
+        <v>2015.606682649876</v>
       </c>
       <c r="W4" t="n">
-        <v>30.6496180761</v>
+        <v>1783.506662020009</v>
       </c>
       <c r="X4" t="n">
-        <v>2.249304810625575</v>
+        <v>1540.942765465815</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.249304810625575</v>
+        <v>1314.599997155557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385.4788451005669</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C5" t="n">
-        <v>362.6185191542711</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D5" t="n">
-        <v>66.7516296044289</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>44.81509379269051</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>23.73131602249481</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>23.4326576523475</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>23.4326576523475</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>23.4326576523475</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>23.4326576523475</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>23.4326576523475</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>184.1391323920716</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>184.1391323920716</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>184.1391323920716</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>474.1182708398719</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>764.0974092876722</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.076547735473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617375</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.632882617375</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.632882617375</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.632882617375</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1171.632882617375</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="W5" t="n">
-        <v>993.0205844513773</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="X5" t="n">
-        <v>697.1536949015351</v>
+        <v>2202.133457436601</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2868053516929</v>
+        <v>2200.836591431896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473.0502452013075</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>473.0502452013075</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>369.2102867165925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>264.5083529895297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.8625226724339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003791</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.4326576523475</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.4326576523475</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>23.4326576523475</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>219.676157189271</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>219.676157189271</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>219.676157189271</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>219.676157189271</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O6" t="n">
-        <v>509.6552956370713</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>799.6344340848716</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532672</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617375</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1171.632882617375</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1171.632882617375</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1171.632882617375</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>966.6597437566413</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>770.1383665898585</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>741.6701432680778</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>601.9772546213702</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.9789633524287</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>353.0064002313446</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>189.6896273581154</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>189.6896273581154</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6896273581154</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>23.4326576523475</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>23.4326576523475</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.4326576523475</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.4326576523475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6953370332121</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>464.6744754810125</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>464.6744754810125</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>754.6536139288128</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>754.6536139288128</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.632752376613</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617375</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.632882617375</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1171.632882617375</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1171.632882617375</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1171.632882617375</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1171.632882617375</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>957.7088286186892</v>
+        <v>1174.049047793704</v>
       </c>
       <c r="X7" t="n">
-        <v>715.1449320644942</v>
+        <v>1174.049047793704</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1449320644942</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1599.88963103829</v>
+        <v>2200.126831414696</v>
       </c>
       <c r="C8" t="n">
-        <v>1172.98890105159</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D8" t="n">
-        <v>749.6962802365902</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>323.7193403844477</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1389.514143537154</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1616.994457294121</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.697591289416</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>36.9119924608267</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>950.4838058662884</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>950.4838058662884</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.0352107310263</v>
+        <v>919.256267878769</v>
       </c>
       <c r="C10" t="n">
-        <v>685.0352107310263</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>303.8948463526241</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V10" t="n">
-        <v>1563.888155649366</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W10" t="n">
-        <v>1289.035751821879</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X10" t="n">
-        <v>1046.471855267684</v>
+        <v>1145.599036189027</v>
       </c>
       <c r="Y10" t="n">
-        <v>875.2011794430919</v>
+        <v>919.256267878769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.410291042732</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878314</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>799.7816978398713</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1729.406745459148</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1729.406745459148</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2705.657803945849</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3550.802454096661</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4213.669493218612</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2673.802182866313</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2303.361784077732</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>84.27338986437223</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>84.27338986437223</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>973.7546678758439</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>1689.952384914342</v>
+        <v>1874.486968420372</v>
       </c>
       <c r="Q12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.1764135929075</v>
+        <v>795.2884438199454</v>
       </c>
       <c r="C13" t="n">
-        <v>786.1007217283523</v>
+        <v>623.3158806988614</v>
       </c>
       <c r="D13" t="n">
-        <v>657.6808201116518</v>
+        <v>459.9991078256321</v>
       </c>
       <c r="E13" t="n">
-        <v>526.3694855210341</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521233</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145057</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627486</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.195833384319</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677918</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380252</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326523</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2241.002834659953</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1848.998975929782</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1460.603226371312</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>754.3694578038945</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1683.994505423171</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M14" t="n">
-        <v>1683.994505423171</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N14" t="n">
-        <v>2660.245563909872</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>3505.390214060684</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4213.669493218612</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.712332502384</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3373.217854059259</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2996.394726483536</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2625.954327694954</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>84.27338986437223</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>84.27338986437223</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>84.27338986437223</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>712.6178265436047</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1428.815543582103</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929076</v>
+        <v>655.1318596602907</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283524</v>
+        <v>483.1592965392069</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116519</v>
+        <v>483.1592965392069</v>
       </c>
       <c r="E16" t="n">
-        <v>526.3694855210342</v>
+        <v>316.9510906920605</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521234</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2403.067629201356</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2194.625152683785</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.337575440617</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.522979305175</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W16" t="n">
-        <v>1462.567446734217</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102174</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048444</v>
+        <v>845.2978283723564</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27338986437223</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1013.898437483649</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2018.184538902707</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2994.435597389408</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>2994.435597389408</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>3702.714876547336</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q17" t="n">
-        <v>4158.800356051519</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4181.590311414484</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>3995.561611715646</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3772.103573568587</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3772.103573568587</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3410.609095125463</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3033.785967549739</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>850.0778208732756</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709867</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064315</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>630.548091389731</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>526.3694855210341</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>389.4045825521233</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677919</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380253</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326524</v>
+        <v>563.5863609803853</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>446.8768486812677</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>446.8768486812677</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>1227.909025918988</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2204.160084405689</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3049.304734556501</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>3757.584013714429</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4144.199070348282</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4094.69611718581</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3772.103573568588</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3410.609095125463</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3033.785967549739</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>91.72003282628407</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>363.4175221058752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>953.9024486742147</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1790.701256757121</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1892.961020444882</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.1764135929072</v>
+        <v>373.4203922683196</v>
       </c>
       <c r="C22" t="n">
-        <v>786.1007217283523</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="D22" t="n">
-        <v>657.6808201116518</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="E22" t="n">
-        <v>526.3694855210341</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521233</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369393</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2209.616139349407</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.32856210624</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1717.513965970797</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1477.558433399839</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1269.891408102173</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.445511048444</v>
+        <v>563.5863609803853</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057893</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208706</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366633</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>363.3174869946455</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>953.8024135629851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1790.601221645891</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>1900.307628295564</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216687</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571135</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>637.894699240413</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>533.7160933717162</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028054</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535664</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478168</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235001</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>985.4544125320106</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>742.8905159778157</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177206</v>
+        <v>516.5477476675577</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6212,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6266,7 +6266,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6315,16 +6315,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683195</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>373.4203922683195</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6382,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6409,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803851</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6543,16 +6543,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1748.774177950213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.774177950213</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>615.9842888225141</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>603.7382302102653</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058286</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.1502575345799</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815417</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2099.031646519604</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701818</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.82051185263</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010558</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514741</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077326</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>91.29483210793288</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>91.29483210793288</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>91.29483210793288</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>294.303467638473</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1183.784745649945</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P33" t="n">
-        <v>1899.982462688443</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.23129846199</v>
+        <v>534.9883540242422</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223603</v>
+        <v>373.2152733633827</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305852</v>
+        <v>373.2152733633827</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648933</v>
+        <v>373.2152733633827</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>211.5529815981675</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793286</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>169.7905543892525</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>406.3146683543556</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090885</v>
+        <v>771.0005024080423</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.182810137559</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.670833772861</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.09547521189</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893056</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392366</v>
+        <v>2362.687842893085</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2362.687842893085</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2202.752277872444</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468937</v>
+        <v>1969.612412558568</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1699.627446519097</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1428.11546158735</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394146</v>
+        <v>1163.462540220087</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721405</v>
+        <v>931.098126126117</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292601</v>
+        <v>714.9548402760835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C35" t="n">
         <v>1887.721261114921</v>
@@ -6923,7 +6923,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815415</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
@@ -6944,16 +6944,16 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>2099.031646519604</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="N35" t="n">
-        <v>3075.282705006305</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="O35" t="n">
-        <v>3920.427355157117</v>
+        <v>3856.462326238716</v>
       </c>
       <c r="P35" t="n">
-        <v>4108.65612589246</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="Q35" t="n">
         <v>4564.741605396644</v>
@@ -6971,7 +6971,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W35" t="n">
         <v>3407.387820744696</v>
@@ -6980,7 +6980,7 @@
         <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J36" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K36" t="n">
-        <v>960.9238909177753</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L36" t="n">
-        <v>1797.722699000682</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="M36" t="n">
-        <v>1899.982462688443</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="N36" t="n">
-        <v>1899.982462688443</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="O36" t="n">
-        <v>1899.982462688443</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="P36" t="n">
-        <v>1899.982462688443</v>
+        <v>1397.97747571477</v>
       </c>
       <c r="Q36" t="n">
-        <v>1899.982462688443</v>
+        <v>1862.12295257755</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619906</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C37" t="n">
         <v>786.2936862223607</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E37" t="n">
         <v>528.8386092648933</v>
@@ -7084,28 +7084,28 @@
         <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
@@ -7117,10 +7117,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T37" t="n">
         <v>2201.842546468938</v>
@@ -7129,7 +7129,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W37" t="n">
         <v>1473.199079394147</v>
@@ -7151,22 +7151,22 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D38" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815406</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524433</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793222</v>
       </c>
       <c r="I38" t="n">
         <v>91.29483210793288</v>
@@ -7184,16 +7184,16 @@
         <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O38" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P38" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R38" t="n">
         <v>4564.741605396644</v>
@@ -7257,19 +7257,19 @@
         <v>91.29483210793288</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793288</v>
+        <v>843.9959247123975</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793288</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="N39" t="n">
-        <v>91.29483210793288</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O39" t="n">
-        <v>980.7761101194045</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P39" t="n">
-        <v>1696.973827157903</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q39" t="n">
         <v>1899.982462688443</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C40" t="n">
         <v>786.2936862223607</v>
@@ -7315,7 +7315,7 @@
         <v>659.0118642305856</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648934</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F40" t="n">
         <v>393.0117859209079</v>
@@ -7339,10 +7339,10 @@
         <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O40" t="n">
         <v>2066.015649511878</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7366,7 +7366,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W40" t="n">
         <v>1473.199079394147</v>
@@ -7388,22 +7388,22 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815406</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524433</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793222</v>
       </c>
       <c r="I41" t="n">
         <v>91.29483210793288</v>
@@ -7418,19 +7418,19 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2555.23219658372</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N41" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O41" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P41" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R41" t="n">
         <v>4564.741605396644</v>
@@ -7445,7 +7445,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W41" t="n">
         <v>3407.387820744696</v>
@@ -7494,16 +7494,16 @@
         <v>91.29483210793288</v>
       </c>
       <c r="L42" t="n">
-        <v>843.9959247123975</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M42" t="n">
-        <v>1899.982462688443</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N42" t="n">
-        <v>1899.982462688443</v>
+        <v>294.303467638473</v>
       </c>
       <c r="O42" t="n">
-        <v>1899.982462688443</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P42" t="n">
         <v>1899.982462688443</v>
@@ -7567,13 +7567,13 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090888</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238253</v>
@@ -7634,13 +7634,13 @@
         <v>1110.521602210686</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815406</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524433</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793222</v>
       </c>
       <c r="I44" t="n">
         <v>91.29483210793288</v>
@@ -7722,31 +7722,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="M45" t="n">
-        <v>91.29483210793288</v>
+        <v>1154.72801304589</v>
       </c>
       <c r="N45" t="n">
-        <v>91.29483210793288</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="O45" t="n">
-        <v>637.6199587024621</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P45" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q45" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619898</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223611</v>
+        <v>786.29368622236</v>
       </c>
       <c r="D46" t="n">
-        <v>659.011864230586</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648936</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209082</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965945</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
-        <v>155.028449486203</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
         <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7840,16 +7840,16 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X46" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y46" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>219.2939242501955</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>64.41156050163252</v>
+        <v>553.0925868901074</v>
       </c>
       <c r="N2" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>65.50726948884378</v>
+        <v>553.0522833466998</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,25 +8052,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>302.488317348778</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>538.7581045030037</v>
       </c>
       <c r="N3" t="n">
-        <v>40.80146423805365</v>
+        <v>537.0043522042173</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>538.8332137128979</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>147.2255555237372</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>200.6418148969907</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8228,13 +8228,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>330.2991800103679</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>330.4835824645751</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.0328952589418</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8295,7 +8295,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>220.6249909413368</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,16 +8304,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O6" t="n">
-        <v>316.080110376566</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591725</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433223</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>173.7552396859086</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.826980550045</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299442</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2890213123302</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,22 +8453,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>114.4784903637085</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8535,22 +8535,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>464.5283265304019</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8611,10 +8611,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>232.5722561371962</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8699,19 +8699,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>707.1380275899794</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.8062660976048</v>
+        <v>59.6191348202578</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>712.6293158852359</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8945,10 +8945,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,16 +9176,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>90.45602077064794</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>796.6366098142506</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>1074.760401518195</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9401,16 +9401,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>826.352654048644</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9422,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9474,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>126.389471106026</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9644,10 +9644,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
-        <v>395.4385419568376</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9659,7 +9659,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>133.9113326837148</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9732,7 +9732,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,16 +9875,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9963,19 +9963,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>575.0154519389184</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>187.0266028900253</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10349,16 +10349,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>379.3444866548641</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,10 +10367,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10437,19 +10437,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,19 +10592,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>798.1430586490076</v>
       </c>
       <c r="P35" t="n">
-        <v>227.7054332600727</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,19 +10659,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>126.389471106026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10680,13 +10680,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>498.0882592628462</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10844,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.8062660976048</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11066,10 +11066,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>498.2398993278321</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11081,7 +11081,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11142,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11382,22 +11382,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>50.69326316713236</v>
       </c>
       <c r="O45" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>356.3839468365914</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.86140143470176</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>79.34073237338141</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>37.01732865554143</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>122.2356629785257</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573507</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>14.84107679896644</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>37.01732865554126</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>26.86140143470134</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>172.2155341347412</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.86140143470191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>118.5577190788915</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>26.86140143470158</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>66.33105441802877</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>158.1292394637468</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088748</v>
       </c>
       <c r="E34" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>154.4486361530528</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>46.33914686267252</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.260818171305</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150463</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407642</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.775962901883758e-13</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>528362.7834534378</v>
+        <v>548818.3198572181</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>539843.5187738681</v>
+        <v>550066.3909202104</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>547148.9097753726</v>
+        <v>550066.3909202105</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535707.7972467046</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>535707.7972467046</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>535707.7972467046</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>535707.7972467046</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>563409.9545057144</v>
+        <v>548775.7030176546</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>563894.0792665511</v>
+        <v>553975.5181752788</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>495076.2678094886</v>
+      </c>
+      <c r="C2" t="n">
         <v>495076.2678094887</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>495076.2678094886</v>
       </c>
-      <c r="D2" t="n">
-        <v>495076.2678094887</v>
-      </c>
       <c r="E2" t="n">
-        <v>470415.3573772567</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="F2" t="n">
-        <v>470415.3573772568</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="G2" t="n">
-        <v>470415.357377257</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="H2" t="n">
-        <v>470415.3573772571</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="I2" t="n">
-        <v>494528.2952202209</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="J2" t="n">
+        <v>477725.8426668303</v>
+      </c>
+      <c r="K2" t="n">
         <v>477725.8426668304</v>
       </c>
-      <c r="K2" t="n">
-        <v>477725.8426668303</v>
-      </c>
       <c r="L2" t="n">
-        <v>495076.2678094883</v>
+        <v>482636.7792045866</v>
       </c>
       <c r="M2" t="n">
-        <v>495076.2678094883</v>
+        <v>495076.2678094885</v>
       </c>
       <c r="N2" t="n">
-        <v>495076.2678094883</v>
+        <v>495076.2678094885</v>
       </c>
       <c r="O2" t="n">
-        <v>495076.2678094883</v>
+        <v>495076.2678094886</v>
       </c>
       <c r="P2" t="n">
-        <v>495076.2678094883</v>
+        <v>495076.2678094886</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797272</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943941</v>
+        <v>13105.84347019895</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447381</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596184</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826556</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085289</v>
+        <v>134919.6914542163</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710367</v>
+        <v>10440.51617310201</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370049</v>
+        <v>8077.990108497725</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819144</v>
+        <v>166235.4618077717</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568029</v>
+        <v>173411.7992128441</v>
       </c>
       <c r="C4" t="n">
-        <v>231198.6061196095</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>73226.69586079579</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>73226.69586079579</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
-        <v>73226.69586079579</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>73226.69586079579</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
-        <v>75440.92339458491</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="J4" t="n">
         <v>43748.40045389556</v>
@@ -26445,7 +26445,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>76430.3115629073</v>
+        <v>47070.97709963571</v>
       </c>
       <c r="M4" t="n">
         <v>76430.3115629073</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863308</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.4198157841</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646881</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482542</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145196.1912959694</v>
+        <v>83874.69021828419</v>
       </c>
       <c r="C6" t="n">
-        <v>126894.7376946557</v>
+        <v>249148.434259405</v>
       </c>
       <c r="D6" t="n">
-        <v>196896.211017915</v>
+        <v>262254.2777296039</v>
       </c>
       <c r="E6" t="n">
-        <v>125834.7641409511</v>
+        <v>140436.9928056803</v>
       </c>
       <c r="F6" t="n">
-        <v>330236.4776005696</v>
+        <v>356176.3493623209</v>
       </c>
       <c r="G6" t="n">
-        <v>330236.4776005698</v>
+        <v>356176.3493623209</v>
       </c>
       <c r="H6" t="n">
-        <v>330236.47760057</v>
+        <v>356176.3493623209</v>
       </c>
       <c r="I6" t="n">
-        <v>322131.5496149606</v>
+        <v>356176.3493623207</v>
       </c>
       <c r="J6" t="n">
-        <v>313932.5603736523</v>
+        <v>221256.6579081045</v>
       </c>
       <c r="K6" t="n">
-        <v>288078.4155974014</v>
+        <v>345735.8331892188</v>
       </c>
       <c r="L6" t="n">
-        <v>309904.2916780551</v>
+        <v>348852.2773887935</v>
       </c>
       <c r="M6" t="n">
-        <v>198729.6347998412</v>
+        <v>180027.293973984</v>
       </c>
       <c r="N6" t="n">
-        <v>346262.7557817556</v>
+        <v>346262.7557817558</v>
       </c>
       <c r="O6" t="n">
-        <v>346262.7557817556</v>
+        <v>346262.7557817558</v>
       </c>
       <c r="P6" t="n">
-        <v>346262.7557817555</v>
+        <v>346262.7557817559</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263961</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543438</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701746</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215241</v>
+        <v>40.56648912491846</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059904</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352674</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674966</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215243</v>
+        <v>40.56648912491846</v>
       </c>
       <c r="L4" t="n">
-        <v>30.8931688822945</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>584.9575882335665</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215241</v>
+        <v>40.56648912491846</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059904</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>174.8504219784542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,22 +27430,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75.53860425697246</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5930618811052</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.531113795253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>249.2662938818791</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>247.3390338242245</v>
+        <v>42.32485936564424</v>
       </c>
       <c r="X4" t="n">
-        <v>212.0219474558332</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126.1514739525059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>338.9673024934253</v>
       </c>
       <c r="W5" t="n">
-        <v>215.6012610183188</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6945781895864</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.3756766903148</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>133.6590316824409</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>60.31906633051301</v>
+        <v>243.9351323820918</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>137.2293373345548</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,7 +27904,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>36.19569241458302</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>54.52137156080931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562216</v>
       </c>
     </row>
     <row r="35">
@@ -30645,7 +30645,7 @@
         <v>35.67460137263961</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263993</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="M43" t="n">
         <v>35.67460137263961</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>183.5293234553861</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>26.98029760220071</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="N2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,25 +34772,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>28.11631013281968</v>
+        <v>279.9732306345485</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="N3" t="n">
-        <v>19.45843602451199</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>515.6613239906757</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>126.2609010710252</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>28.11631013281968</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>162.3297724643678</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>292.9082206543438</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>292.9082206543438</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9082206543438</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>198.2257571080035</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O6" t="n">
-        <v>292.9082206543438</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543438</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.9082206543438</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>152.7905852331966</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543438</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543438</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>292.9082206543438</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,22 +35173,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>442.7574853255732</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>211.6076016844843</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>669.5626657797482</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.0592278086263</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>676.8647150904266</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35665,10 +35665,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,16 +35896,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.42337087585148</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>773.5398293019226</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>1053.417373304653</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>788.9213911492122</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36142,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>103.292690593698</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
-        <v>358.1589191223916</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36379,7 +36379,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>110.8145521713869</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36683,19 +36683,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>551.8435622166962</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>163.8547131678031</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>342.0648638204181</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,10 +37087,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391034</v>
+        <v>68.16953634689288</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293971</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471583</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722391</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760623</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333626</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324918</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747756</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,19 +37312,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>760.7520992929834</v>
       </c>
       <c r="P35" t="n">
-        <v>190.1300714498414</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>103.292690593698</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>460.8086364284002</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37564,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0592278086263</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>460.8086364284002</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37801,7 +37801,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>264.4903601664146</v>
       </c>
       <c r="L43" t="n">
-        <v>393.9466430841761</v>
+        <v>393.9466430841758</v>
       </c>
       <c r="M43" t="n">
         <v>430.8117680092566</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>29.35023495359069</v>
       </c>
       <c r="O45" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
